--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/3/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/3/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6426426426426426</v>
+        <v>0.3547354735473547</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1103.103103103103</v>
+        <v>1815.871587158716</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005805805805805806</v>
+        <v>0.07763776377637764</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1661661661661662</v>
+        <v>0.722972297229723</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1729.72972972973</v>
+        <v>254.6754675467547</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>329.3293293293294</v>
+        <v>115.7515751575158</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>472.4724724724725</v>
+        <v>936.1575157515751</v>
       </c>
     </row>
   </sheetData>
